--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_P_first_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_opposite_P_first_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BE6E80F-3A4B-46C7-8A72-CFA26E339622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{649AD394-8535-4C86-8E22-836AC8906B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{480953A9-4179-470A-B9BB-432A0A4C36E1}"/>
   </bookViews>
@@ -516,16 +516,16 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.45454545454545453</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.45454545454545453</v>
+        <v>0.27272727272727271</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -557,40 +557,40 @@
         <v>17</v>
       </c>
       <c r="D3">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.29411764705882354</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.29411764705882354</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -633,10 +633,10 @@
         <v>46</v>
       </c>
       <c r="D5">
-        <v>0.10869565217391304</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>0.10869565217391304</v>
@@ -651,22 +651,22 @@
         <v>9</v>
       </c>
       <c r="J5">
-        <v>0.10869565217391304</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.10869565217391304</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0.10869565217391304</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -680,10 +680,10 @@
         <v>38</v>
       </c>
       <c r="D6">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0.23684210526315788</v>
@@ -698,16 +698,16 @@
         <v>9</v>
       </c>
       <c r="J6">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0.13157894736842105</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>0.2</v>
@@ -745,22 +745,22 @@
         <v>6</v>
       </c>
       <c r="J7">
-        <v>0.16666666666666666</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.16666666666666666</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0.16666666666666666</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>8.9285714285714288E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>8.9285714285714288E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="M8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0.10714285714285714</v>
@@ -879,22 +879,22 @@
         <v>33</v>
       </c>
       <c r="D11">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>0.15151515151515152</v>
@@ -926,16 +926,16 @@
         <v>38</v>
       </c>
       <c r="D12">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="G12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>0.15789473684210525</v>
@@ -944,10 +944,10 @@
         <v>6</v>
       </c>
       <c r="J12">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>0.13157894736842105</v>
@@ -973,16 +973,16 @@
         <v>28</v>
       </c>
       <c r="D13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H13">
         <v>0.17857142857142858</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.17857142857142858</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1020,22 +1020,22 @@
         <v>23</v>
       </c>
       <c r="D14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.21739130434782608</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="I14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1067,34 +1067,34 @@
         <v>24</v>
       </c>
       <c r="D15">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0.29166666666666669</v>
@@ -1126,10 +1126,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1179,16 +1179,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.29411764705882354</v>
+        <v>0.17647058823529413</v>
       </c>
       <c r="K17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.29411764705882354</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17">
         <v>0.29411764705882354</v>
@@ -1214,22 +1214,22 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.27777777777777779</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0.27777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0.27777777777777779</v>
+        <v>0.22222222222222221</v>
       </c>
       <c r="K18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L18">
         <v>0.33333333333333331</v>
@@ -1255,22 +1255,22 @@
         <v>41</v>
       </c>
       <c r="D19">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0.12195121951219512</v>
+        <v>7.3170731707317069E-2</v>
       </c>
       <c r="I19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J19">
         <v>0.21951219512195122</v>
@@ -1302,16 +1302,16 @@
         <v>49</v>
       </c>
       <c r="D20">
-        <v>0.10204081632653061</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.10204081632653061</v>
+        <v>4.0816326530612242E-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>0.14285714285714285</v>
@@ -1349,22 +1349,22 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="G21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H21">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21">
         <v>0.125</v>
@@ -1396,10 +1396,10 @@
         <v>42</v>
       </c>
       <c r="D22">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22">
         <v>0.16666666666666666</v>
@@ -1414,10 +1414,10 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L22">
         <v>0.11904761904761904</v>
@@ -1566,10 +1566,10 @@
         <v>20</v>
       </c>
       <c r="J26">
-        <v>8.4745762711864403E-2</v>
+        <v>3.3898305084745763E-2</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>0.11864406779661017</v>
@@ -1624,34 +1624,34 @@
         <v>23</v>
       </c>
       <c r="D28">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>0.21739130434782608</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="I28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0.21739130434782608</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="K28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>0.21739130434782608</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="M28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N28">
         <v>0.2608695652173913</v>
@@ -1671,28 +1671,28 @@
         <v>20</v>
       </c>
       <c r="D29">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="K29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>0.35</v>
@@ -1718,22 +1718,22 @@
         <v>18</v>
       </c>
       <c r="D30">
-        <v>0.27777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.27777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0.27777777777777779</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0.38461538461538464</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="I31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="O31">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1818,34 +1818,34 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>8.771929824561403E-2</v>
+        <v>3.5087719298245612E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H32">
-        <v>8.771929824561403E-2</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J32">
-        <v>8.771929824561403E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>8.771929824561403E-2</v>
+        <v>1.7543859649122806E-2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>8.771929824561403E-2</v>
+        <v>7.0175438596491224E-2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1900,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0.15151515151515152</v>
+        <v>3.0303030303030304E-2</v>
       </c>
       <c r="I34">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N34">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1964,40 +1964,40 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H36">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2011,22 +2011,22 @@
         <v>16</v>
       </c>
       <c r="D37">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>0.3125</v>
+        <v>0.125</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2064,16 +2064,16 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2111,34 +2111,34 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.38461538461538464</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.38461538461538464</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0.38461538461538464</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>0.38461538461538464</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>0.38461538461538464</v>
+        <v>0.30769230769230771</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2152,16 +2152,16 @@
         <v>29</v>
       </c>
       <c r="D40">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0.17241379310344829</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H40">
         <v>0.17241379310344829</v>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -2205,34 +2205,34 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J41">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L41">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="M41">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N41">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2246,16 +2246,16 @@
         <v>68</v>
       </c>
       <c r="D42">
-        <v>7.3529411764705885E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>7.3529411764705885E-2</v>
+        <v>4.4117647058823532E-2</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H42">
         <v>0.13235294117647059</v>
@@ -2264,10 +2264,10 @@
         <v>9</v>
       </c>
       <c r="J42">
-        <v>7.3529411764705885E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L42">
         <v>7.3529411764705885E-2</v>
@@ -2293,10 +2293,10 @@
         <v>91</v>
       </c>
       <c r="D43">
-        <v>5.4945054945054944E-2</v>
+        <v>3.2967032967032968E-2</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>6.5934065934065936E-2</v>
@@ -2323,10 +2323,10 @@
         <v>0</v>
       </c>
       <c r="N43">
-        <v>5.4945054945054944E-2</v>
+        <v>3.2967032967032968E-2</v>
       </c>
       <c r="O43">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2346,34 +2346,34 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="I44">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J44">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="K44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L44">
-        <v>0.26315789473684209</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="M44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0.26315789473684209</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2393,16 +2393,16 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="G45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>0.17241379310344829</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="I45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J45">
         <v>0.31034482758620691</v>
@@ -2434,34 +2434,34 @@
         <v>22</v>
       </c>
       <c r="D46">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>0.22727272727272727</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G46">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="I46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0.22727272727272727</v>
@@ -2487,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>0.16666666666666666</v>
@@ -2499,22 +2499,22 @@
         <v>6</v>
       </c>
       <c r="J47">
-        <v>0.1388888888888889</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H48">
-        <v>0.10638297872340426</v>
+        <v>6.3829787234042548E-2</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -2558,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="O48">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2575,16 +2575,16 @@
         <v>53</v>
       </c>
       <c r="D49">
-        <v>9.4339622641509441E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="E49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F49">
-        <v>9.4339622641509441E-2</v>
+        <v>7.5471698113207544E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49">
         <v>0.13207547169811321</v>
@@ -2593,10 +2593,10 @@
         <v>7</v>
       </c>
       <c r="J49">
-        <v>9.4339622641509441E-2</v>
+        <v>3.7735849056603772E-2</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L49">
         <v>9.4339622641509441E-2</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.10638297872340426</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0.10638297872340426</v>
+        <v>6.3829787234042548E-2</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>0.10638297872340426</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2669,22 +2669,22 @@
         <v>42</v>
       </c>
       <c r="D51">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>0.11904761904761904</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H51">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -2699,10 +2699,10 @@
         <v>0</v>
       </c>
       <c r="N51">
-        <v>0.11904761904761904</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O51">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2716,10 +2716,10 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>0.15</v>
@@ -2734,10 +2734,10 @@
         <v>8</v>
       </c>
       <c r="J52">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L52">
         <v>0.125</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.1388888888888889</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -2787,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.1388888888888889</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>0.1388888888888889</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -2822,10 +2822,10 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -2834,16 +2834,16 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2857,22 +2857,22 @@
         <v>29</v>
       </c>
       <c r="D55">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="E55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F55">
-        <v>0.17241379310344829</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
-        <v>0.17241379310344829</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>0</v>
